--- a/test/junk-small.xlsx
+++ b/test/junk-small.xlsx
@@ -25,13 +25,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="D\-MMM\-YYYY" numFmtId="165"/>
     <numFmt formatCode="0;[RED]0" numFmtId="166"/>
     <numFmt formatCode="@" numFmtId="167"/>
     <numFmt formatCode="YY\-MM\-DD" numFmtId="168"/>
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="169"/>
+    <numFmt formatCode="DD\-MMM\-YYYY" numFmtId="169"/>
+    <numFmt formatCode="GENERAL" numFmtId="170"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -118,13 +119,13 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -151,15 +152,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.6117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="12.4549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="18.1803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.5019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="16.4980392156863"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="11.4392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="18.3411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="21.0470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.6666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="12.5176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="18.2705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.5921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="16.5764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="11.4941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="18.4313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -179,6 +179,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="10" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -205,7 +206,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
